--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3581449.075657025</v>
+        <v>3685475.127517534</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498524</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7647595.929801064</v>
+        <v>7611436.217519509</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298.2211116725528</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>283.9746808062639</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>197.763063016066</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>251.2375443843482</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>341.0302325097524</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -956,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>42.76773080618856</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>69.32826864069938</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>7.588074277212033</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>5.246717585355508</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>260.8536857590194</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.0538077839173</v>
+        <v>155.7570797884752</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>104.795004917596</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>53.07327741456097</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6452826062320446</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>218.227129859624</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,10 +2089,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>173.574028979552</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2293,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2770,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>107.3363007608859</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898977</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261728</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545296</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541843</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652594</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921807978</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>156.741638509605</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352487</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317884</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445514</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969976</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600552</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>81.13054509253692</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261734</v>
+        <v>135.4684761590174</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>142.962173606588</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261725</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308914</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.239490800229</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652771</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808186</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352484</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972043</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308922</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>80.10107535865944</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695516</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>93.40444476188625</v>
+        <v>51.36569740310371</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>353.3552283577025</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176918</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X2" t="n">
-        <v>2678.274518176918</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y2" t="n">
-        <v>2288.135186201106</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
@@ -4431,28 +4433,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>773.7942044041906</v>
+        <v>699.4849621798493</v>
       </c>
       <c r="C4" t="n">
-        <v>604.8580214762837</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1727.533878375295</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1727.533878375295</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1472.849390169408</v>
+        <v>881.133427010089</v>
       </c>
       <c r="W4" t="n">
-        <v>1183.432220132448</v>
+        <v>881.133427010089</v>
       </c>
       <c r="X4" t="n">
-        <v>955.4426692344304</v>
+        <v>881.133427010089</v>
       </c>
       <c r="Y4" t="n">
-        <v>955.4426692344304</v>
+        <v>881.133427010089</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1648.004869410821</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>1279.042352470409</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2381.544313363695</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450754</v>
+        <v>2008.078555102614</v>
       </c>
       <c r="Y5" t="n">
-        <v>2034.604709474942</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="6">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>678.4618728343356</v>
+        <v>698.5757713318899</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343356</v>
+        <v>698.5757713318899</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219999</v>
+        <v>548.4591319195541</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>548.4591319195541</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>401.5691844216437</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>233.8663477963627</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4759,16 +4761,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1127.244002875883</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>899.2544519778658</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y7" t="n">
-        <v>678.4618728343356</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.035106955554</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.072590015142</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1137.806891408392</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>752.0186388101474</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>341.0327340205399</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>330.0006879059404</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265602</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995487</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995487</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.634947019676</v>
+        <v>2308.470254646116</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601529</v>
+        <v>460.171619808316</v>
       </c>
       <c r="C10" t="n">
-        <v>825.351820332246</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199102</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>527.3220873375171</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1356.675339798491</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>1128.685788900473</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y10" t="n">
-        <v>1128.685788900473</v>
+        <v>617.5020034330385</v>
       </c>
     </row>
     <row r="11">
@@ -5021,31 +5023,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,19 +5117,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1653.302830625878</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1425.313279727861</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.520700584331</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5522,16 +5524,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.445529061503</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5707,16 +5709,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1754.779756989948</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1465.362586952987</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X19" t="n">
-        <v>1237.37303605497</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5838,19 +5840,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5990,16 +5992,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6029,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,10 +6071,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
         <v>949.9304447718133</v>
@@ -6127,16 +6129,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6212,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6251,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,31 +6384,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6418,16 +6420,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,28 +6481,28 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319332</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656825</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150029</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942659</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345478</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384021</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380727</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>898.265941231132</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717214</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931275</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532433</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="35">
@@ -6932,10 +6934,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,7 +6946,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6971,7 +6973,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="38">
@@ -7166,46 +7168,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7257,16 +7259,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319338</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656833</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150039</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942672</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580132</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345494</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384039</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7403,28 +7405,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7497,16 +7499,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942661</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="44">
@@ -7628,70 +7630,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.899304487672</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597652</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597652</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597652</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597652</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235167</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258108</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602306</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396419</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359459</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614415</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179116</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
   </sheetData>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>-4.365407234347674e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.03697526434127</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>165.5113759375338</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>251.4923607175959</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>68.29586847696697</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.257951202385328</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24181,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>179.1866975757051</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>67.48492792567544</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>13.14699685919493</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>12.04875628922451</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>145.6085800303777</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72.11969353038245</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>655476.383192202</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666592.5193316239</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666592.5193316239</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666592.5193316239</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666592.5193316239</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666592.5193316239</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>766789.269705506</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
-        <v>779989.6813710695</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710695</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710696</v>
+        <v>766789.269705506</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710693</v>
+        <v>766789.269705506</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26390,7 +26392,7 @@
         <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363168</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813243</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
+        <v>89744.12305813249</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813246</v>
       </c>
-      <c r="D4" t="n">
-        <v>89744.12305813242</v>
-      </c>
       <c r="E4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
@@ -26439,25 +26441,25 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="K4" t="n">
-        <v>18547.94754987463</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>18547.94754987474</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.94754987468</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.94754987476</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>18547.94754987468</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678134</v>
+        <v>10557.08828678121</v>
       </c>
     </row>
     <row r="5">
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-746433.1279760494</v>
       </c>
       <c r="C6" t="n">
+        <v>582311.6177515432</v>
+      </c>
+      <c r="D6" t="n">
         <v>582311.6177515433</v>
       </c>
-      <c r="D6" t="n">
-        <v>582311.6177515434</v>
-      </c>
       <c r="E6" t="n">
-        <v>329697.1897874625</v>
+        <v>329697.1897874626</v>
       </c>
       <c r="F6" t="n">
+        <v>655109.6515948178</v>
+      </c>
+      <c r="G6" t="n">
+        <v>655109.6515948178</v>
+      </c>
+      <c r="H6" t="n">
         <v>655109.6515948176</v>
       </c>
-      <c r="G6" t="n">
-        <v>655109.6515948176</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>655109.6515948178</v>
-      </c>
-      <c r="I6" t="n">
-        <v>655109.6515948176</v>
       </c>
       <c r="J6" t="n">
         <v>437578.4491975399</v>
       </c>
       <c r="K6" t="n">
-        <v>638849.8999736478</v>
+        <v>655109.6515948179</v>
       </c>
       <c r="L6" t="n">
-        <v>658277.6179672794</v>
+        <v>655109.6515948176</v>
       </c>
       <c r="M6" t="n">
-        <v>573222.5900317677</v>
+        <v>570054.623659306</v>
       </c>
       <c r="N6" t="n">
-        <v>658277.6179672793</v>
+        <v>655109.6515948176</v>
       </c>
       <c r="O6" t="n">
-        <v>658277.6179672793</v>
+        <v>655109.6515948178</v>
       </c>
       <c r="P6" t="n">
-        <v>655109.6515948175</v>
+        <v>655109.6515948174</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84.51272999092782</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>126.9470448471895</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27439,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>21.78588626010318</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.9000989394798466</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>13.65280911093055</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>306.4732379112244</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>75.4267462736214</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>278.9349240593789</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>377.4871240781251</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>33.7540786283011</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27907,16 +27909,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.77817239801999</v>
+        <v>24.07490039346209</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31835,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31850,7 +31852,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32078,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L15" t="n">
-        <v>211.7351844430274</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32099,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,10 +32314,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>522.1224556861836</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32558,7 +32560,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32570,10 +32572,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,13 +32791,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>518.439455159358</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139906</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N36" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>431.9220107744075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +34000,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34217,31 +34219,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>213.1625787491746</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797993</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35498,7 +35500,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35726,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L15" t="n">
-        <v>73.18080466315317</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>379.5262112417391</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,7 +36208,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36218,10 +36220,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396316</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930847</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.910780481947</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.546547198085</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986645</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919379</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462684</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N36" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>293.3676309945333</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986648</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919382</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3685475.127517534</v>
+        <v>3681462.51750354</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7611436.217519509</v>
+        <v>7611436.217519508</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>2.834206670630765</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>283.9746808062639</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>251.2375443843482</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>114.2656173771025</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>120.7056494455316</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>42.76773080618856</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>69.32826864069938</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.246717585355508</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>50.04052206184266</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.7570797884752</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>217.091419992848</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>135.5334195528338</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.07327741456097</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1897,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>218.227129859624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,13 +2958,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>99.97427419833859</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>81.13054509253692</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
-        <v>135.4684761590174</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>136.5667167289878</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>80.10107535865944</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>51.36569740310371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.569348694472</v>
+        <v>1979.067756754392</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.606831754061</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>764.3411331473101</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>764.3411331473101</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3552283577025</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.5429342656</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995485</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734406</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.169188758594</v>
+        <v>2365.667596818514</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4433,16 +4433,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199866</v>
@@ -4454,7 +4454,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>699.4849621798493</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>530.5487792519424</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4321398396066</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>881.133427010089</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W4" t="n">
-        <v>881.133427010089</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>881.133427010089</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>881.133427010089</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1354.075868958388</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2381.544313363695</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.078555102614</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>1617.939223126803</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.5757713318899</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>698.5757713318899</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>548.4591319195541</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>548.4591319195541</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>401.5691844216437</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>233.8663477963627</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>880.2242361621296</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>880.2242361621296</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1343.379050624725</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>985.1133520179749</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883008</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>3072.075344883008</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X8" t="n">
-        <v>2698.609586621928</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y8" t="n">
-        <v>2308.470254646116</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4895,10 +4895,10 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>460.171619808316</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>460.171619808316</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>617.5020034330385</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>617.5020034330385</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5035,25 +5035,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908939</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,16 +5512,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5530,10 +5530,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5597,16 +5597,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5712,13 +5712,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.315625093766</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5834,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>562.8579153358619</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998291</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998291</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647281</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368213</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949679</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>768.5380889459586</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,58 +7168,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703114</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424045</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>727.9786782557277</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>559.0424953278208</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1130.419722229497</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.6271430859674</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098242</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819173</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695815</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>516.3896878871884</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>369.499740389278</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924459</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718572</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783594</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640064</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-4.365407234347674e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>83.05123379926101</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.5113759375338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>68.29586847696697</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>136.2749052347514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>65.54986409393025</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>67.48492792567544</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
-        <v>13.14699685919493</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>12.04875628922451</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>145.6085800303777</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>9.000252501566052</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>655476.383192202</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="13">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
         <v>766789.269705506</v>
@@ -26331,31 +26331,31 @@
         <v>766789.269705506</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813239</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26441,7 +26441,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-746433.1279760494</v>
+        <v>-746433.1279760497</v>
       </c>
       <c r="C6" t="n">
-        <v>582311.6177515432</v>
+        <v>582311.6177515434</v>
       </c>
       <c r="D6" t="n">
-        <v>582311.6177515433</v>
+        <v>582311.6177515434</v>
       </c>
       <c r="E6" t="n">
-        <v>329697.1897874626</v>
+        <v>329349.8105331053</v>
       </c>
       <c r="F6" t="n">
-        <v>655109.6515948178</v>
+        <v>654762.2723404608</v>
       </c>
       <c r="G6" t="n">
-        <v>655109.6515948178</v>
+        <v>654762.2723404608</v>
       </c>
       <c r="H6" t="n">
-        <v>655109.6515948176</v>
+        <v>654762.2723404606</v>
       </c>
       <c r="I6" t="n">
-        <v>655109.6515948178</v>
+        <v>654762.2723404606</v>
       </c>
       <c r="J6" t="n">
-        <v>437578.4491975399</v>
+        <v>437231.0699431829</v>
       </c>
       <c r="K6" t="n">
-        <v>655109.6515948179</v>
+        <v>654762.2723404606</v>
       </c>
       <c r="L6" t="n">
-        <v>655109.6515948176</v>
+        <v>654762.2723404606</v>
       </c>
       <c r="M6" t="n">
-        <v>570054.623659306</v>
+        <v>569707.2444049487</v>
       </c>
       <c r="N6" t="n">
-        <v>655109.6515948176</v>
+        <v>654762.2723404606</v>
       </c>
       <c r="O6" t="n">
-        <v>655109.6515948178</v>
+        <v>654762.2723404606</v>
       </c>
       <c r="P6" t="n">
-        <v>655109.6515948174</v>
+        <v>654762.2723404606</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>362.4386851003768</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.9470448471895</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9000989394798466</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>172.2573809594885</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>261.2247206267302</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>306.4732379112244</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>75.4267462736214</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>377.4871240781251</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>331.8898480104191</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.07490039346209</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.12041821276489</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32080,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32554,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,19 +32794,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4622569139906</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>533.6019216797993</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>322.6208179396316</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>395.0475418999251</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3681462.51750354</v>
+        <v>3683223.047806325</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7611436.217519508</v>
+        <v>7611436.217519507</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.834206670630765</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>275.2907795024317</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>114.2656173771025</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>120.7056494455316</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>37.84125266805093</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039631</v>
+        <v>13.02719212039586</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>50.04052206184266</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>238.6022248578415</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>217.091419992848</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>59.45282559760491</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>135.5334195528338</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>160.6789846282037</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>85.08368458989422</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>172.0260335000785</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1979.067756754392</v>
+        <v>1914.669427940025</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1545.706910999614</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1187.441212392863</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>801.6529597946189</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794326</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794326</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794326</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y2" t="n">
-        <v>2365.667596818514</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4415,46 +4415,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4485,22 +4485,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565139</v>
+        <v>2085.807325826218</v>
       </c>
       <c r="C5" t="n">
-        <v>1712.341567565139</v>
+        <v>1716.844808885806</v>
       </c>
       <c r="D5" t="n">
-        <v>1354.075868958388</v>
+        <v>1358.579110279056</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>972.7908576808115</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>561.804952891204</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>146.7325027362005</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4609,10 +4609,10 @@
         <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605072</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629261</v>
+        <v>2472.40716589034</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4713,28 +4713,28 @@
         <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,19 +4746,19 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
         <v>1914.135768168901</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565137</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624725</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>985.1133520179749</v>
+        <v>654.050464674405</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>654.050464674405</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>647.1049639252016</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.54649786615</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.08073960507</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.941407629259</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4895,10 +4895,10 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4947,31 +4947,31 @@
         <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,16 +4983,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
         <v>1708.010285469454</v>
@@ -5035,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.6442739835331</v>
+        <v>762.5477693179095</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>593.6115863900026</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>443.4949469776668</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>295.5818533952737</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>295.5818533952737</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>295.5818533952737</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>153.8700222374718</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.292738813773</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5998,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6205,19 +6205,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
@@ -6226,10 +6226,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,13 +6238,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6256,19 +6256,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6682,25 +6682,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6882,10 +6882,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
         <v>2035.268256189238</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7162,64 +7162,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>21.81301072096059</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.05123379926101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>125.5054897610405</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>55.21102825632967</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>9.000252501566052</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>655476.383192202</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="C2" t="n">
+        <v>779989.6813710688</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.681371069</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.6813710689</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.6813710688</v>
-      </c>
       <c r="E2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="M2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055058</v>
-      </c>
       <c r="O2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055056</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813239</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26441,7 +26441,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-746433.1279760497</v>
+        <v>-746433.1279760494</v>
       </c>
       <c r="C6" t="n">
-        <v>582311.6177515434</v>
+        <v>582311.6177515433</v>
       </c>
       <c r="D6" t="n">
-        <v>582311.6177515434</v>
+        <v>582311.6177515431</v>
       </c>
       <c r="E6" t="n">
-        <v>329349.8105331053</v>
+        <v>329662.4518620263</v>
       </c>
       <c r="F6" t="n">
-        <v>654762.2723404608</v>
+        <v>655074.9136693822</v>
       </c>
       <c r="G6" t="n">
-        <v>654762.2723404608</v>
+        <v>655074.913669382</v>
       </c>
       <c r="H6" t="n">
-        <v>654762.2723404606</v>
+        <v>655074.9136693819</v>
       </c>
       <c r="I6" t="n">
-        <v>654762.2723404606</v>
+        <v>655074.9136693819</v>
       </c>
       <c r="J6" t="n">
-        <v>437231.0699431829</v>
+        <v>437543.7112721042</v>
       </c>
       <c r="K6" t="n">
-        <v>654762.2723404606</v>
+        <v>655074.9136693818</v>
       </c>
       <c r="L6" t="n">
-        <v>654762.2723404606</v>
+        <v>655074.913669382</v>
       </c>
       <c r="M6" t="n">
-        <v>569707.2444049487</v>
+        <v>570019.8857338697</v>
       </c>
       <c r="N6" t="n">
-        <v>654762.2723404606</v>
+        <v>655074.9136693818</v>
       </c>
       <c r="O6" t="n">
-        <v>654762.2723404606</v>
+        <v>655074.9136693818</v>
       </c>
       <c r="P6" t="n">
-        <v>654762.2723404606</v>
+        <v>655074.9136693816</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>362.4386851003768</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>131.5852662392797</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>172.2573809594885</v>
+        <v>172.2573809594889</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>261.2247206267302</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>256.7665117192695</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034317</v>
+        <v>239.1104512034321</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>331.8898480104191</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>172.3195007956119</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276489</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770459</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
